--- a/Documentation/MSYSADD1/PROPOSE/Use_Case_Full_Description_Admin_Propose.xlsx
+++ b/Documentation/MSYSADD1/PROPOSE/Use_Case_Full_Description_Admin_Propose.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\3RD YEAR\3rd year 1st term\MSYADD1\LSC-LMS\Proposed System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\3RD YEAR\3rd year 1st term\MSYADD1\Group-3\Documentation\MSYSADD1\PROPOSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case F.D (Admin)1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="37">
   <si>
     <t>USE CASE FULL DESCRIPTION</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>Sign out request</t>
+  </si>
+  <si>
+    <t>1. Admin must have an account</t>
+  </si>
+  <si>
+    <t>1. Admin Is now signed in</t>
   </si>
 </sst>
 </file>
@@ -207,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -350,13 +356,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -403,6 +435,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -698,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -772,15 +814,19 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="17"/>
     </row>
     <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -793,20 +839,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -823,7 +873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
@@ -1438,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Documentation/MSYSADD1/PROPOSE/Use_Case_Full_Description_Admin_Propose.xlsx
+++ b/Documentation/MSYSADD1/PROPOSE/Use_Case_Full_Description_Admin_Propose.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case F.D (Admin)1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="38">
   <si>
     <t>USE CASE FULL DESCRIPTION</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>1. Admin Is now signed in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Opens the site for admin.              2. Inputs the username amd password.                                               </t>
   </si>
 </sst>
 </file>
@@ -213,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -382,13 +385,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -402,12 +431,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,16 +474,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -742,91 +780,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="2" max="2" width="33.25" customWidth="1"/>
     <col min="3" max="3" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -839,16 +877,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="C11" s="19"/>
+    <row r="11" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -871,10 +912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -885,75 +926,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -966,20 +1009,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -1008,75 +1056,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1093,8 +1141,8 @@
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -1131,75 +1179,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1216,8 +1264,8 @@
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -1254,75 +1302,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1339,8 +1387,8 @@
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -1377,75 +1425,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1462,8 +1510,8 @@
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -1500,75 +1548,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1585,8 +1633,8 @@
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>

--- a/Documentation/MSYSADD1/PROPOSE/Use_Case_Full_Description_Admin_Propose.xlsx
+++ b/Documentation/MSYSADD1/PROPOSE/Use_Case_Full_Description_Admin_Propose.xlsx
@@ -5,20 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\3RD YEAR\3rd year 1st term\MSYADD1\Group-3\Documentation\MSYSADD1\PROPOSE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Videos\Project---LSC-2\Documentation\MSYSADD1\PROPOSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Use Case F.D (Admin)1" sheetId="1" r:id="rId1"/>
-    <sheet name="Use Case F.D (Admin)2" sheetId="2" r:id="rId2"/>
-    <sheet name="Use Case F.D (Admin)3" sheetId="3" r:id="rId3"/>
-    <sheet name="Use Case F.D (Admin)4" sheetId="4" r:id="rId4"/>
-    <sheet name="Use Case F.D (Admin)5" sheetId="6" r:id="rId5"/>
-    <sheet name="Use Case F.D (Admin)6" sheetId="7" r:id="rId6"/>
-    <sheet name="Use Case F.D (Admin)7" sheetId="8" r:id="rId7"/>
+    <sheet name="Use Case F.D (Admin)1" sheetId="2" r:id="rId1"/>
+    <sheet name="Use Case F.D (Admin)2" sheetId="3" r:id="rId2"/>
+    <sheet name="Use Case F.D (Admin)3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>USE CASE FULL DESCRIPTION</t>
   </si>
@@ -71,79 +67,34 @@
     <t>Exception Conditions</t>
   </si>
   <si>
-    <t>Signs in the admin</t>
-  </si>
-  <si>
-    <t>Updates schedule of student</t>
-  </si>
-  <si>
     <t>Create new requirement</t>
   </si>
   <si>
-    <t>Updates attendance of student</t>
-  </si>
-  <si>
-    <t>Look up for summary of grades</t>
-  </si>
-  <si>
-    <t>Look up for summary of attendance</t>
-  </si>
-  <si>
-    <t>Signs out the admin</t>
-  </si>
-  <si>
-    <t>Admin logs in</t>
-  </si>
-  <si>
-    <t>Sign in request</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>Admin updates schedule of student</t>
-  </si>
-  <si>
     <t>Schedule change request</t>
   </si>
   <si>
-    <t>Admin adds requirements(homework/exercise/quiz)</t>
-  </si>
-  <si>
-    <t>New requirements</t>
-  </si>
-  <si>
-    <t>Admin updates attendance</t>
-  </si>
-  <si>
     <t>Attendance change request</t>
   </si>
   <si>
-    <t>Admin checks grades summary of students</t>
-  </si>
-  <si>
-    <t>Grades inquiry</t>
-  </si>
-  <si>
-    <t>Admin checks summary of attendance</t>
-  </si>
-  <si>
-    <t>Attandance inquiry</t>
-  </si>
-  <si>
-    <t>Admin logs out</t>
-  </si>
-  <si>
-    <t>Sign out request</t>
-  </si>
-  <si>
-    <t>1. Admin must have an account</t>
-  </si>
-  <si>
-    <t>1. Admin Is now signed in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Opens the site for admin.              2. Inputs the username amd password.                                               </t>
+    <t>Admin add task</t>
+  </si>
+  <si>
+    <t>New requirement</t>
+  </si>
+  <si>
+    <t>Updates attendance of students</t>
+  </si>
+  <si>
+    <t>Admin updates and check the attendance and grades of students</t>
+  </si>
+  <si>
+    <t>Look up for students schedule</t>
+  </si>
+  <si>
+    <t>Admin updates schedule</t>
   </si>
 </sst>
 </file>
@@ -216,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -370,19 +321,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -417,7 +355,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -434,54 +372,50 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -780,91 +714,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="2" width="33.25" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="10"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="10"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -877,19 +807,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
-      <c r="B11" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -912,91 +840,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.375" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="8"/>
+      <c r="B3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="17"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1009,140 +935,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-    </row>
-    <row r="12" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="21" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-    </row>
-    <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="11" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -1163,12 +961,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1179,75 +977,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="17"/>
+      <c r="B2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1264,377 +1062,8 @@
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="21" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-    </row>
-    <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="21" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="21" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
